--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\labs\Mephi\5 sem\ta\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8D2CC7-DA9E-4A01-A50A-01AFBE887FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1354CD-D3FF-4C29-89D9-7F9FC1911794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,10 +31,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -209,277 +205,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="91"/>
                 <c:pt idx="0">
-                  <c:v>20000</c:v>
+                  <c:v>2000050</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22000</c:v>
+                  <c:v>3000050</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24000</c:v>
+                  <c:v>4000050</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26000</c:v>
+                  <c:v>5000050</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28000</c:v>
+                  <c:v>6000050</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30000</c:v>
+                  <c:v>7000050</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32000</c:v>
+                  <c:v>8000050</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34000</c:v>
+                  <c:v>9000050</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36000</c:v>
+                  <c:v>10000050</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38000</c:v>
+                  <c:v>11000050</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40000</c:v>
+                  <c:v>12000050</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42000</c:v>
+                  <c:v>13000050</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44000</c:v>
+                  <c:v>14000050</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>46000</c:v>
+                  <c:v>15000050</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>48000</c:v>
+                  <c:v>16000050</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>50000</c:v>
+                  <c:v>17000050</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>52000</c:v>
+                  <c:v>18000050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>54000</c:v>
+                  <c:v>19000050</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>56000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>58000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>62000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>66000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>68000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>72000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>74000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>76000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>78000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>82000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>84000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>86000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>88000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>90000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>92000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>94000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>96000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>98000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>102000</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>104000</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>106000</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>108000</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>110000</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>112000</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>114000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>116000</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>118000</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>120000</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>122000</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>124000</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>126000</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>130000</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>132000</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>134000</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>136000</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>138000</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>140000</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>142000</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>144000</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>146000</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>148000</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>150000</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>152000</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>154000</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>156000</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>158000</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>160000</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>162000</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>164000</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>166000</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>168000</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>170000</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>172000</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>174000</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>176000</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>178000</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>180000</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>182000</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>184000</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>186000</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>188000</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>190000</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>192000</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>194000</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>196000</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>198000</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>200000</c:v>
+                  <c:v>20000050</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -491,277 +271,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="91"/>
                 <c:pt idx="0">
-                  <c:v>1277899800</c:v>
+                  <c:v>644555800</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1375860900</c:v>
+                  <c:v>934973100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1468799400</c:v>
+                  <c:v>1277376900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1588791300</c:v>
+                  <c:v>1561285000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1708928900</c:v>
+                  <c:v>1916303300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1909697700</c:v>
+                  <c:v>2353987100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2017207300</c:v>
+                  <c:v>2528390500</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2069626400</c:v>
+                  <c:v>2879515500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2225730900</c:v>
+                  <c:v>3164781600</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2467565000</c:v>
+                  <c:v>3530649300</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2477449600</c:v>
+                  <c:v>3813073600</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1686036600</c:v>
+                  <c:v>4147496000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1760409300</c:v>
+                  <c:v>4476347900</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1820121400</c:v>
+                  <c:v>4805146800</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1862400300</c:v>
+                  <c:v>5196218700</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1960505200</c:v>
+                  <c:v>5963197000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2054616900</c:v>
+                  <c:v>5959072300</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2089312900</c:v>
+                  <c:v>6235136500</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2150330900</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2264404600</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2328904300</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2492534600</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2586277000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2569736300</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2691075000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2771308200</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2831260200</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3030148100</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3760784200</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3887332200</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3159516000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3259205000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3378542200</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3503179000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3559933300</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3536977500</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3583189600</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3724236200</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3758772100</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3880816600</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4003905900</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4128955600</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4122187900</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4245070300</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4263729000</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4313747200</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4370040500</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4421801900</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4511526700</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>4650049700</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>4714042200</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>4758962200</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5090492800</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>4948119000</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5009068500</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>5112504400</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5207447500</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5307801400</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5401216800</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5413837400</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>5536414500</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>5612613100</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>5683832100</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>5783181400</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>5884155900</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>5949694000</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>6001916600</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>6175254400</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>6305587400</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>6240074700</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>6266287200</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>6567837400</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>6497526100</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>6554157900</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>6681701600</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>6663553700</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>6858017000</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>6841606300</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>6946333300</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>7036036600</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>7105544300</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>7197083500</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>7186577000</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>7301127000</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>7344934500</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>7579441600</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>7623129200</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>7671950300</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>7660356500</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>7840084800</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>7870883400</c:v>
+                  <c:v>6534864600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1823,923 +1387,635 @@
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="11.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" style="6" customWidth="1"/>
     <col min="5" max="5" width="13.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>20000</v>
+        <v>2000050</v>
       </c>
       <c r="B1" s="2">
-        <v>1277899800</v>
+        <v>644555800</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>22000</v>
+        <v>3000050</v>
       </c>
       <c r="B2" s="2">
-        <v>1375860900</v>
+        <v>934973100</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>24000</v>
+        <v>4000050</v>
       </c>
       <c r="B3" s="2">
-        <v>1468799400</v>
+        <v>1277376900</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>26000</v>
+        <v>5000050</v>
       </c>
       <c r="B4" s="2">
-        <v>1588791300</v>
+        <v>1561285000</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>28000</v>
+        <v>6000050</v>
       </c>
       <c r="B5" s="2">
-        <v>1708928900</v>
+        <v>1916303300</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>30000</v>
+        <v>7000050</v>
       </c>
       <c r="B6" s="2">
-        <v>1909697700</v>
+        <v>2353987100</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>32000</v>
+        <v>8000050</v>
       </c>
       <c r="B7" s="2">
-        <v>2017207300</v>
+        <v>2528390500</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>34000</v>
+        <v>9000050</v>
       </c>
       <c r="B8" s="2">
-        <v>2069626400</v>
+        <v>2879515500</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>36000</v>
+        <v>10000050</v>
       </c>
       <c r="B9" s="2">
-        <v>2225730900</v>
+        <v>3164781600</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>38000</v>
+        <v>11000050</v>
       </c>
       <c r="B10" s="2">
-        <v>2467565000</v>
+        <v>3530649300</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>40000</v>
+        <v>12000050</v>
       </c>
       <c r="B11" s="2">
-        <v>2477449600</v>
+        <v>3813073600</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>42000</v>
+        <v>13000050</v>
       </c>
       <c r="B12" s="2">
-        <v>1686036600</v>
+        <v>4147496000</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>44000</v>
+        <v>14000050</v>
       </c>
       <c r="B13" s="2">
-        <v>1760409300</v>
+        <v>4476347900</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>46000</v>
+        <v>15000050</v>
       </c>
       <c r="B14" s="2">
-        <v>1820121400</v>
+        <v>4805146800</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>48000</v>
+        <v>16000050</v>
       </c>
       <c r="B15" s="2">
-        <v>1862400300</v>
+        <v>5196218700</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>50000</v>
+        <v>17000050</v>
       </c>
       <c r="B16" s="2">
-        <v>1960505200</v>
+        <v>5963197000</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>52000</v>
+        <v>18000050</v>
       </c>
       <c r="B17" s="2">
-        <v>2054616900</v>
+        <v>5959072300</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>54000</v>
+        <v>19000050</v>
       </c>
       <c r="B18" s="2">
-        <v>2089312900</v>
+        <v>6235136500</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>56000</v>
+        <v>20000050</v>
       </c>
       <c r="B19" s="2">
-        <v>2150330900</v>
+        <v>6534864600</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>58000</v>
-      </c>
-      <c r="B20" s="2">
-        <v>2264404600</v>
-      </c>
+      <c r="A20"/>
+      <c r="B20" s="2"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>60000</v>
-      </c>
-      <c r="B21" s="2">
-        <v>2328904300</v>
-      </c>
+      <c r="A21"/>
+      <c r="B21" s="2"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>62000</v>
-      </c>
-      <c r="B22" s="2">
-        <v>2492534600</v>
-      </c>
+      <c r="A22"/>
+      <c r="B22" s="2"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>64000</v>
-      </c>
-      <c r="B23" s="2">
-        <v>2586277000</v>
-      </c>
+      <c r="A23"/>
+      <c r="B23" s="2"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>66000</v>
-      </c>
-      <c r="B24" s="2">
-        <v>2569736300</v>
-      </c>
+      <c r="A24"/>
+      <c r="B24" s="2"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>68000</v>
-      </c>
-      <c r="B25" s="2">
-        <v>2691075000</v>
-      </c>
+      <c r="A25"/>
+      <c r="B25" s="2"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>70000</v>
-      </c>
-      <c r="B26" s="2">
-        <v>2771308200</v>
-      </c>
+      <c r="A26"/>
+      <c r="B26" s="2"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>72000</v>
-      </c>
-      <c r="B27" s="2">
-        <v>2831260200</v>
-      </c>
+      <c r="A27"/>
+      <c r="B27" s="2"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>74000</v>
-      </c>
-      <c r="B28" s="2">
-        <v>3030148100</v>
-      </c>
+      <c r="A28"/>
+      <c r="B28" s="2"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>76000</v>
-      </c>
-      <c r="B29" s="2">
-        <v>3760784200</v>
-      </c>
+      <c r="A29"/>
+      <c r="B29" s="2"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>78000</v>
-      </c>
-      <c r="B30" s="2">
-        <v>3887332200</v>
-      </c>
+      <c r="A30"/>
+      <c r="B30" s="2"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>80000</v>
-      </c>
-      <c r="B31" s="2">
-        <v>3159516000</v>
-      </c>
+      <c r="A31"/>
+      <c r="B31" s="2"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>82000</v>
-      </c>
-      <c r="B32" s="2">
-        <v>3259205000</v>
-      </c>
+      <c r="A32"/>
+      <c r="B32" s="2"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>84000</v>
-      </c>
-      <c r="B33" s="2">
-        <v>3378542200</v>
-      </c>
+      <c r="A33"/>
+      <c r="B33" s="2"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>86000</v>
-      </c>
-      <c r="B34" s="2">
-        <v>3503179000</v>
-      </c>
+      <c r="A34"/>
+      <c r="B34" s="2"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>88000</v>
-      </c>
-      <c r="B35" s="2">
-        <v>3559933300</v>
-      </c>
+      <c r="A35"/>
+      <c r="B35" s="2"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>90000</v>
-      </c>
-      <c r="B36" s="2">
-        <v>3536977500</v>
-      </c>
+      <c r="A36"/>
+      <c r="B36" s="2"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>92000</v>
-      </c>
-      <c r="B37" s="2">
-        <v>3583189600</v>
-      </c>
+      <c r="A37"/>
+      <c r="B37" s="2"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>94000</v>
-      </c>
-      <c r="B38" s="2">
-        <v>3724236200</v>
-      </c>
+      <c r="A38"/>
+      <c r="B38" s="2"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>96000</v>
-      </c>
-      <c r="B39" s="2">
-        <v>3758772100</v>
-      </c>
+      <c r="A39"/>
+      <c r="B39" s="2"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>98000</v>
-      </c>
-      <c r="B40" s="2">
-        <v>3880816600</v>
-      </c>
+      <c r="A40"/>
+      <c r="B40" s="2"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>100000</v>
-      </c>
-      <c r="B41" s="2">
-        <v>4003905900</v>
-      </c>
+      <c r="A41"/>
+      <c r="B41" s="2"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>102000</v>
-      </c>
-      <c r="B42" s="2">
-        <v>4128955600</v>
-      </c>
+      <c r="A42"/>
+      <c r="B42" s="2"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>104000</v>
-      </c>
-      <c r="B43" s="2">
-        <v>4122187900</v>
-      </c>
+      <c r="A43"/>
+      <c r="B43" s="2"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>106000</v>
-      </c>
-      <c r="B44" s="2">
-        <v>4245070300</v>
-      </c>
+      <c r="A44"/>
+      <c r="B44" s="2"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>108000</v>
-      </c>
-      <c r="B45" s="2">
-        <v>4263729000</v>
-      </c>
+      <c r="A45"/>
+      <c r="B45" s="2"/>
       <c r="D45" s="4"/>
       <c r="E45" s="5"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>110000</v>
-      </c>
-      <c r="B46" s="2">
-        <v>4313747200</v>
-      </c>
+      <c r="A46"/>
+      <c r="B46" s="2"/>
       <c r="D46" s="4"/>
       <c r="E46" s="5"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>112000</v>
-      </c>
-      <c r="B47" s="2">
-        <v>4370040500</v>
-      </c>
+      <c r="A47"/>
+      <c r="B47" s="2"/>
       <c r="D47" s="4"/>
       <c r="E47" s="5"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>114000</v>
-      </c>
-      <c r="B48" s="2">
-        <v>4421801900</v>
-      </c>
+      <c r="A48"/>
+      <c r="B48" s="2"/>
       <c r="D48" s="4"/>
       <c r="E48" s="5"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>116000</v>
-      </c>
-      <c r="B49" s="2">
-        <v>4511526700</v>
-      </c>
+      <c r="A49"/>
+      <c r="B49" s="2"/>
       <c r="D49" s="4"/>
       <c r="E49" s="5"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>118000</v>
-      </c>
-      <c r="B50" s="2">
-        <v>4650049700</v>
-      </c>
+      <c r="A50"/>
+      <c r="B50" s="2"/>
       <c r="D50" s="4"/>
       <c r="E50" s="5"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>120000</v>
-      </c>
-      <c r="B51" s="2">
-        <v>4714042200</v>
-      </c>
+      <c r="A51"/>
+      <c r="B51" s="2"/>
       <c r="D51" s="4"/>
       <c r="E51" s="5"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>122000</v>
-      </c>
-      <c r="B52" s="2">
-        <v>4758962200</v>
-      </c>
+      <c r="A52"/>
+      <c r="B52" s="2"/>
       <c r="D52" s="4"/>
       <c r="E52" s="5"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>124000</v>
-      </c>
-      <c r="B53" s="2">
-        <v>5090492800</v>
-      </c>
+      <c r="A53"/>
+      <c r="B53" s="2"/>
       <c r="D53" s="4"/>
       <c r="E53" s="5"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>126000</v>
-      </c>
-      <c r="B54" s="2">
-        <v>4948119000</v>
-      </c>
+      <c r="A54"/>
+      <c r="B54" s="2"/>
       <c r="D54" s="4"/>
       <c r="E54" s="5"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>128000</v>
-      </c>
-      <c r="B55" s="2">
-        <v>5009068500</v>
-      </c>
+      <c r="A55"/>
+      <c r="B55" s="2"/>
       <c r="D55" s="4"/>
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>130000</v>
-      </c>
-      <c r="B56" s="2">
-        <v>5112504400</v>
-      </c>
+      <c r="A56"/>
+      <c r="B56" s="2"/>
       <c r="D56" s="4"/>
       <c r="E56" s="5"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>132000</v>
-      </c>
-      <c r="B57" s="2">
-        <v>5207447500</v>
-      </c>
+      <c r="A57"/>
+      <c r="B57" s="2"/>
       <c r="D57" s="4"/>
       <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>134000</v>
-      </c>
-      <c r="B58" s="2">
-        <v>5307801400</v>
-      </c>
+      <c r="A58"/>
+      <c r="B58" s="2"/>
       <c r="D58" s="4"/>
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>136000</v>
-      </c>
-      <c r="B59" s="2">
-        <v>5401216800</v>
-      </c>
+      <c r="A59"/>
+      <c r="B59" s="2"/>
       <c r="D59" s="4"/>
       <c r="E59" s="5"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>138000</v>
-      </c>
-      <c r="B60" s="2">
-        <v>5413837400</v>
-      </c>
+      <c r="A60"/>
+      <c r="B60" s="2"/>
       <c r="D60" s="4"/>
       <c r="E60" s="5"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>140000</v>
-      </c>
-      <c r="B61" s="2">
-        <v>5536414500</v>
-      </c>
+      <c r="A61"/>
+      <c r="B61" s="2"/>
       <c r="D61" s="4"/>
       <c r="E61" s="5"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>142000</v>
-      </c>
-      <c r="B62" s="2">
-        <v>5612613100</v>
-      </c>
+      <c r="A62"/>
+      <c r="B62" s="2"/>
       <c r="D62" s="4"/>
       <c r="E62" s="5"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>144000</v>
-      </c>
-      <c r="B63" s="2">
-        <v>5683832100</v>
-      </c>
+      <c r="A63"/>
+      <c r="B63" s="2"/>
       <c r="D63" s="4"/>
       <c r="E63" s="5"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>146000</v>
-      </c>
-      <c r="B64" s="2">
-        <v>5783181400</v>
-      </c>
+      <c r="A64"/>
+      <c r="B64" s="2"/>
       <c r="D64" s="4"/>
       <c r="E64" s="5"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>148000</v>
-      </c>
-      <c r="B65" s="2">
-        <v>5884155900</v>
-      </c>
+      <c r="A65"/>
+      <c r="B65" s="2"/>
       <c r="D65" s="4"/>
       <c r="E65" s="5"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>150000</v>
-      </c>
-      <c r="B66" s="2">
-        <v>5949694000</v>
-      </c>
+      <c r="A66"/>
+      <c r="B66" s="2"/>
       <c r="D66" s="4"/>
       <c r="E66" s="5"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>152000</v>
-      </c>
-      <c r="B67" s="2">
-        <v>6001916600</v>
-      </c>
+      <c r="A67"/>
+      <c r="B67" s="2"/>
       <c r="D67" s="4"/>
       <c r="E67" s="5"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>154000</v>
-      </c>
-      <c r="B68" s="2">
-        <v>6175254400</v>
-      </c>
+      <c r="A68"/>
+      <c r="B68" s="2"/>
       <c r="D68" s="4"/>
       <c r="E68" s="5"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>156000</v>
-      </c>
-      <c r="B69" s="2">
-        <v>6305587400</v>
-      </c>
+      <c r="A69"/>
+      <c r="B69" s="2"/>
       <c r="D69" s="4"/>
       <c r="E69" s="5"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>158000</v>
-      </c>
-      <c r="B70" s="2">
-        <v>6240074700</v>
-      </c>
+      <c r="A70"/>
+      <c r="B70" s="2"/>
       <c r="D70" s="4"/>
       <c r="E70" s="5"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>160000</v>
-      </c>
-      <c r="B71" s="2">
-        <v>6266287200</v>
-      </c>
+      <c r="A71"/>
+      <c r="B71" s="2"/>
       <c r="D71" s="4"/>
       <c r="E71" s="5"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>162000</v>
-      </c>
-      <c r="B72" s="2">
-        <v>6567837400</v>
-      </c>
+      <c r="A72"/>
+      <c r="B72" s="2"/>
       <c r="D72" s="4"/>
       <c r="E72" s="5"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>164000</v>
-      </c>
-      <c r="B73" s="2">
-        <v>6497526100</v>
-      </c>
+      <c r="A73"/>
+      <c r="B73" s="2"/>
       <c r="D73" s="4"/>
       <c r="E73" s="5"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>166000</v>
-      </c>
-      <c r="B74" s="2">
-        <v>6554157900</v>
-      </c>
+      <c r="A74"/>
+      <c r="B74" s="2"/>
       <c r="D74" s="4"/>
       <c r="E74" s="5"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>168000</v>
-      </c>
-      <c r="B75" s="2">
-        <v>6681701600</v>
-      </c>
+      <c r="A75"/>
+      <c r="B75" s="2"/>
       <c r="D75" s="4"/>
       <c r="E75" s="5"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>170000</v>
-      </c>
-      <c r="B76" s="2">
-        <v>6663553700</v>
-      </c>
+      <c r="A76"/>
+      <c r="B76" s="2"/>
       <c r="D76" s="4"/>
       <c r="E76" s="5"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>172000</v>
-      </c>
-      <c r="B77" s="2">
-        <v>6858017000</v>
-      </c>
+      <c r="A77"/>
+      <c r="B77" s="2"/>
       <c r="D77" s="4"/>
       <c r="E77" s="5"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>174000</v>
-      </c>
-      <c r="B78" s="2">
-        <v>6841606300</v>
-      </c>
+      <c r="A78"/>
+      <c r="B78" s="2"/>
       <c r="D78" s="4"/>
       <c r="E78" s="5"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>176000</v>
-      </c>
-      <c r="B79" s="2">
-        <v>6946333300</v>
-      </c>
+      <c r="A79"/>
+      <c r="B79" s="2"/>
       <c r="D79" s="4"/>
       <c r="E79" s="5"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>178000</v>
-      </c>
-      <c r="B80" s="2">
-        <v>7036036600</v>
-      </c>
+      <c r="A80"/>
+      <c r="B80" s="2"/>
       <c r="D80" s="4"/>
       <c r="E80" s="5"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>180000</v>
-      </c>
-      <c r="B81" s="2">
-        <v>7105544300</v>
-      </c>
+      <c r="A81"/>
+      <c r="B81" s="2"/>
       <c r="D81" s="4"/>
       <c r="E81" s="5"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>182000</v>
-      </c>
-      <c r="B82" s="2">
-        <v>7197083500</v>
-      </c>
+      <c r="A82"/>
+      <c r="B82" s="2"/>
       <c r="D82" s="4"/>
       <c r="E82" s="5"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>184000</v>
-      </c>
-      <c r="B83" s="2">
-        <v>7186577000</v>
-      </c>
+      <c r="A83"/>
+      <c r="B83" s="2"/>
       <c r="D83" s="4"/>
       <c r="E83" s="5"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>186000</v>
-      </c>
-      <c r="B84" s="2">
-        <v>7301127000</v>
-      </c>
+      <c r="A84"/>
+      <c r="B84" s="2"/>
       <c r="D84" s="4"/>
       <c r="E84" s="5"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>188000</v>
-      </c>
-      <c r="B85" s="2">
-        <v>7344934500</v>
-      </c>
+      <c r="A85"/>
+      <c r="B85" s="2"/>
       <c r="D85" s="4"/>
       <c r="E85" s="5"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>190000</v>
-      </c>
-      <c r="B86" s="2">
-        <v>7579441600</v>
-      </c>
+      <c r="A86"/>
+      <c r="B86" s="2"/>
       <c r="D86" s="4"/>
       <c r="E86" s="5"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>192000</v>
-      </c>
-      <c r="B87" s="2">
-        <v>7623129200</v>
-      </c>
+      <c r="A87"/>
+      <c r="B87" s="2"/>
       <c r="D87" s="4"/>
       <c r="E87" s="5"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>194000</v>
-      </c>
-      <c r="B88" s="2">
-        <v>7671950300</v>
-      </c>
+      <c r="A88"/>
+      <c r="B88" s="2"/>
       <c r="D88" s="4"/>
       <c r="E88" s="5"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>196000</v>
-      </c>
-      <c r="B89" s="2">
-        <v>7660356500</v>
-      </c>
+      <c r="A89"/>
+      <c r="B89" s="2"/>
       <c r="D89" s="4"/>
       <c r="E89" s="5"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>198000</v>
-      </c>
-      <c r="B90" s="2">
-        <v>7840084800</v>
-      </c>
+      <c r="A90"/>
+      <c r="B90" s="2"/>
       <c r="D90" s="4"/>
       <c r="E90" s="5"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>200000</v>
-      </c>
-      <c r="B91" s="2">
-        <v>7870883400</v>
-      </c>
+      <c r="A91"/>
+      <c r="B91" s="2"/>
       <c r="D91" s="4"/>
       <c r="E91" s="5"/>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\labs\Mephi\5 sem\ta\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1354CD-D3FF-4C29-89D9-7F9FC1911794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8BD89B-98CE-4C58-8016-0769311EB933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -76,6 +76,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -107,6 +108,1023 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>flex</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$D$1:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3050</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5050</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6050</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7050</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8050</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10050</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11050</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12050</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13050</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14050</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15050</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16050</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17050</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18050</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19050</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$E$1:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>39934407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86745579</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>152869560</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>215732990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>295434935</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400587152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>543314916</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>678656569</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>809269612</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>980297178</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1173177691</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1362116461</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1596880221</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1817514824</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2047722993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2448109958</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2727275079</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2952310641</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3446893763</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-05EB-46C8-BFE8-1704BA30ABAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2085964976"/>
+        <c:axId val="2085964144"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>smc</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$1:$A$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>@</c:formatCode>
+                      <c:ptCount val="19"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$1:$B$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="19"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-05EB-46C8-BFE8-1704BA30ABAA}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2085964976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2085964144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2085964144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2085964976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>flex</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$30:$A$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2000050</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000050</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000050</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000050</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6000050</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7000050</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8000050</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9000050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000050</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11000050</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12000050</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13000050</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14000050</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15000050</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16000050</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17000050</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18000050</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19000050</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20000050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$30:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>644555800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>934973100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1277376900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1561285000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1916303300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2353987100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2528390500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2879515500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3164781600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3530649300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3813073600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4147496000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4476347900</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4805146800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5196218700</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5963197000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5959072300</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6235136500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6534864600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CEA8-4A0B-AFFB-06B99FB30E6D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1451443727"/>
+        <c:axId val="1451448303"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1451443727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1451448303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1451448303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1451443727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -200,132 +1218,132 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$1:$A$91</c:f>
+              <c:f>Лист1!$A$51:$A$69</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>2000050</c:v>
+                  <c:v>2050</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3000050</c:v>
+                  <c:v>3050</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000050</c:v>
+                  <c:v>4050</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000050</c:v>
+                  <c:v>5050</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6000050</c:v>
+                  <c:v>6050</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7000050</c:v>
+                  <c:v>7050</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8000050</c:v>
+                  <c:v>8050</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9000050</c:v>
+                  <c:v>9050</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10000050</c:v>
+                  <c:v>10050</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11000050</c:v>
+                  <c:v>11050</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12000050</c:v>
+                  <c:v>12050</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13000050</c:v>
+                  <c:v>13050</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14000050</c:v>
+                  <c:v>14050</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15000050</c:v>
+                  <c:v>15050</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16000050</c:v>
+                  <c:v>16050</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17000050</c:v>
+                  <c:v>17050</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18000050</c:v>
+                  <c:v>18050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19000050</c:v>
+                  <c:v>19050</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20000050</c:v>
+                  <c:v>20050</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$B$1:$B$91</c:f>
+              <c:f>Лист1!$B$51:$B$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>644555800</c:v>
+                  <c:v>1650682</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>934973100</c:v>
+                  <c:v>2353093</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1277376900</c:v>
+                  <c:v>3333749</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1561285000</c:v>
+                  <c:v>3739060</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1916303300</c:v>
+                  <c:v>4836475</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2353987100</c:v>
+                  <c:v>5921026</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2528390500</c:v>
+                  <c:v>6249614</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2879515500</c:v>
+                  <c:v>6673623</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3164781600</c:v>
+                  <c:v>8765480</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3530649300</c:v>
+                  <c:v>8671588</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3813073600</c:v>
+                  <c:v>8635178</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4147496000</c:v>
+                  <c:v>11733523</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4476347900</c:v>
+                  <c:v>9443714</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4805146800</c:v>
+                  <c:v>10046213</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5196218700</c:v>
+                  <c:v>10794202</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5963197000</c:v>
+                  <c:v>10682848</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5959072300</c:v>
+                  <c:v>11510930</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6235136500</c:v>
+                  <c:v>13026845</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6534864600</c:v>
+                  <c:v>19329924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -333,7 +1351,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-FED5-4C30-BBE2-54CA364C42E9}"/>
+              <c16:uniqueId val="{00000000-794D-448F-AD32-25BD6680BD43}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -345,11 +1363,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2085964976"/>
-        <c:axId val="2085964144"/>
+        <c:axId val="1606973087"/>
+        <c:axId val="1606973919"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2085964976"/>
+        <c:axId val="1606973087"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -369,7 +1387,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -406,12 +1424,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2085964144"/>
+        <c:crossAx val="1606973919"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2085964144"/>
+        <c:axId val="1606973919"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -468,7 +1486,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2085964976"/>
+        <c:crossAx val="1606973087"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -564,7 +1582,1119 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1113,6 +3243,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{475B0153-2882-44A9-B9B3-AB04E98E3F6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{298BD18E-72BC-4446-A3B3-7B98677283A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1386,8 +3588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1397,195 +3599,157 @@
     <col min="5" max="5" width="13.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>2000050</v>
-      </c>
-      <c r="B1" s="2">
-        <v>644555800</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>3000050</v>
-      </c>
-      <c r="B2" s="2">
-        <v>934973100</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>4000050</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1277376900</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>5000050</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1561285000</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>6000050</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1916303300</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>7000050</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2353987100</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>8000050</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2528390500</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>9000050</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2879515500</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>10000050</v>
-      </c>
-      <c r="B9" s="2">
-        <v>3164781600</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>11000050</v>
-      </c>
-      <c r="B10" s="2">
-        <v>3530649300</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>12000050</v>
-      </c>
-      <c r="B11" s="2">
-        <v>3813073600</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>13000050</v>
-      </c>
-      <c r="B12" s="2">
-        <v>4147496000</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>14000050</v>
-      </c>
-      <c r="B13" s="2">
-        <v>4476347900</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>15000050</v>
-      </c>
-      <c r="B14" s="2">
-        <v>4805146800</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>16000050</v>
-      </c>
-      <c r="B15" s="2">
-        <v>5196218700</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>17000050</v>
-      </c>
-      <c r="B16" s="2">
-        <v>5963197000</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
+    <row r="1" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D1" s="4">
+        <v>2050</v>
+      </c>
+      <c r="E1" s="5">
+        <v>39934407</v>
+      </c>
+    </row>
+    <row r="2" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D2" s="4">
+        <v>3050</v>
+      </c>
+      <c r="E2" s="5">
+        <v>86745579</v>
+      </c>
+    </row>
+    <row r="3" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D3" s="4">
+        <v>4050</v>
+      </c>
+      <c r="E3" s="5">
+        <v>152869560</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D4" s="4">
+        <v>5050</v>
+      </c>
+      <c r="E4" s="5">
+        <v>215732990</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D5" s="4">
+        <v>6050</v>
+      </c>
+      <c r="E5" s="5">
+        <v>295434935</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D6" s="4">
+        <v>7050</v>
+      </c>
+      <c r="E6" s="5">
+        <v>400587152</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D7" s="4">
+        <v>8050</v>
+      </c>
+      <c r="E7" s="5">
+        <v>543314916</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D8" s="4">
+        <v>9050</v>
+      </c>
+      <c r="E8" s="5">
+        <v>678656569</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D9" s="4">
+        <v>10050</v>
+      </c>
+      <c r="E9" s="5">
+        <v>809269612</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D10" s="4">
+        <v>11050</v>
+      </c>
+      <c r="E10" s="5">
+        <v>980297178</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D11" s="4">
+        <v>12050</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1173177691</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D12" s="4">
+        <v>13050</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1362116461</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D13" s="4">
+        <v>14050</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1596880221</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D14" s="4">
+        <v>15050</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1817514824</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D15" s="4">
+        <v>16050</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2047722993</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D16" s="4">
+        <v>17050</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2448109958</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>18000050</v>
-      </c>
-      <c r="B17" s="2">
-        <v>5959072300</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="4">
+        <v>18050</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2727275079</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>19000050</v>
-      </c>
-      <c r="B18" s="2">
-        <v>6235136500</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
+      <c r="D18" s="4">
+        <v>19050</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2952310641</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>20000050</v>
-      </c>
-      <c r="B19" s="2">
-        <v>6534864600</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
+      <c r="D19" s="4">
+        <v>20050</v>
+      </c>
+      <c r="E19" s="5">
+        <v>3446893763</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20"/>
@@ -1648,116 +3812,192 @@
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30"/>
-      <c r="B30" s="2"/>
+      <c r="A30">
+        <v>2000050</v>
+      </c>
+      <c r="B30" s="2">
+        <v>644555800</v>
+      </c>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31"/>
-      <c r="B31" s="2"/>
+      <c r="A31">
+        <v>3000050</v>
+      </c>
+      <c r="B31" s="2">
+        <v>934973100</v>
+      </c>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32"/>
-      <c r="B32" s="2"/>
+      <c r="A32">
+        <v>4000050</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1277376900</v>
+      </c>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33"/>
-      <c r="B33" s="2"/>
+      <c r="A33">
+        <v>5000050</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1561285000</v>
+      </c>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34"/>
-      <c r="B34" s="2"/>
+      <c r="A34">
+        <v>6000050</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1916303300</v>
+      </c>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35"/>
-      <c r="B35" s="2"/>
+      <c r="A35">
+        <v>7000050</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2353987100</v>
+      </c>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36"/>
-      <c r="B36" s="2"/>
+      <c r="A36">
+        <v>8000050</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2528390500</v>
+      </c>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37"/>
-      <c r="B37" s="2"/>
+      <c r="A37">
+        <v>9000050</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2879515500</v>
+      </c>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38"/>
-      <c r="B38" s="2"/>
+      <c r="A38">
+        <v>10000050</v>
+      </c>
+      <c r="B38" s="2">
+        <v>3164781600</v>
+      </c>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39"/>
-      <c r="B39" s="2"/>
+      <c r="A39">
+        <v>11000050</v>
+      </c>
+      <c r="B39" s="2">
+        <v>3530649300</v>
+      </c>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40"/>
-      <c r="B40" s="2"/>
+      <c r="A40">
+        <v>12000050</v>
+      </c>
+      <c r="B40" s="2">
+        <v>3813073600</v>
+      </c>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41"/>
-      <c r="B41" s="2"/>
+      <c r="A41">
+        <v>13000050</v>
+      </c>
+      <c r="B41" s="2">
+        <v>4147496000</v>
+      </c>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42"/>
-      <c r="B42" s="2"/>
+      <c r="A42">
+        <v>14000050</v>
+      </c>
+      <c r="B42" s="2">
+        <v>4476347900</v>
+      </c>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43"/>
-      <c r="B43" s="2"/>
+      <c r="A43">
+        <v>15000050</v>
+      </c>
+      <c r="B43" s="2">
+        <v>4805146800</v>
+      </c>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44"/>
-      <c r="B44" s="2"/>
+      <c r="A44">
+        <v>16000050</v>
+      </c>
+      <c r="B44" s="2">
+        <v>5196218700</v>
+      </c>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45"/>
-      <c r="B45" s="2"/>
+      <c r="A45">
+        <v>17000050</v>
+      </c>
+      <c r="B45" s="2">
+        <v>5963197000</v>
+      </c>
       <c r="D45" s="4"/>
       <c r="E45" s="5"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46"/>
-      <c r="B46" s="2"/>
+      <c r="A46">
+        <v>18000050</v>
+      </c>
+      <c r="B46" s="2">
+        <v>5959072300</v>
+      </c>
       <c r="D46" s="4"/>
       <c r="E46" s="5"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47"/>
-      <c r="B47" s="2"/>
+      <c r="A47">
+        <v>19000050</v>
+      </c>
+      <c r="B47" s="2">
+        <v>6235136500</v>
+      </c>
       <c r="D47" s="4"/>
       <c r="E47" s="5"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48"/>
-      <c r="B48" s="2"/>
+      <c r="A48">
+        <v>20000050</v>
+      </c>
+      <c r="B48" s="2">
+        <v>6534864600</v>
+      </c>
       <c r="D48" s="4"/>
       <c r="E48" s="5"/>
     </row>
@@ -1774,116 +4014,192 @@
       <c r="E50" s="5"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51"/>
-      <c r="B51" s="2"/>
+      <c r="A51" s="7">
+        <v>2050</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1650682</v>
+      </c>
       <c r="D51" s="4"/>
       <c r="E51" s="5"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52"/>
-      <c r="B52" s="2"/>
+      <c r="A52" s="7">
+        <v>3050</v>
+      </c>
+      <c r="B52" s="2">
+        <v>2353093</v>
+      </c>
       <c r="D52" s="4"/>
       <c r="E52" s="5"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53"/>
-      <c r="B53" s="2"/>
+      <c r="A53" s="7">
+        <v>4050</v>
+      </c>
+      <c r="B53" s="2">
+        <v>3333749</v>
+      </c>
       <c r="D53" s="4"/>
       <c r="E53" s="5"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54"/>
-      <c r="B54" s="2"/>
+      <c r="A54" s="7">
+        <v>5050</v>
+      </c>
+      <c r="B54" s="2">
+        <v>3739060</v>
+      </c>
       <c r="D54" s="4"/>
       <c r="E54" s="5"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55"/>
-      <c r="B55" s="2"/>
+      <c r="A55" s="7">
+        <v>6050</v>
+      </c>
+      <c r="B55" s="2">
+        <v>4836475</v>
+      </c>
       <c r="D55" s="4"/>
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56"/>
-      <c r="B56" s="2"/>
+      <c r="A56" s="7">
+        <v>7050</v>
+      </c>
+      <c r="B56" s="2">
+        <v>5921026</v>
+      </c>
       <c r="D56" s="4"/>
       <c r="E56" s="5"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57"/>
-      <c r="B57" s="2"/>
+      <c r="A57" s="7">
+        <v>8050</v>
+      </c>
+      <c r="B57" s="2">
+        <v>6249614</v>
+      </c>
       <c r="D57" s="4"/>
       <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58"/>
-      <c r="B58" s="2"/>
+      <c r="A58" s="7">
+        <v>9050</v>
+      </c>
+      <c r="B58" s="2">
+        <v>6673623</v>
+      </c>
       <c r="D58" s="4"/>
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59"/>
-      <c r="B59" s="2"/>
+      <c r="A59" s="7">
+        <v>10050</v>
+      </c>
+      <c r="B59" s="2">
+        <v>8765480</v>
+      </c>
       <c r="D59" s="4"/>
       <c r="E59" s="5"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60"/>
-      <c r="B60" s="2"/>
+      <c r="A60" s="7">
+        <v>11050</v>
+      </c>
+      <c r="B60" s="2">
+        <v>8671588</v>
+      </c>
       <c r="D60" s="4"/>
       <c r="E60" s="5"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61"/>
-      <c r="B61" s="2"/>
+      <c r="A61" s="7">
+        <v>12050</v>
+      </c>
+      <c r="B61" s="2">
+        <v>8635178</v>
+      </c>
       <c r="D61" s="4"/>
       <c r="E61" s="5"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62"/>
-      <c r="B62" s="2"/>
+      <c r="A62" s="7">
+        <v>13050</v>
+      </c>
+      <c r="B62" s="2">
+        <v>11733523</v>
+      </c>
       <c r="D62" s="4"/>
       <c r="E62" s="5"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63"/>
-      <c r="B63" s="2"/>
+      <c r="A63" s="7">
+        <v>14050</v>
+      </c>
+      <c r="B63" s="2">
+        <v>9443714</v>
+      </c>
       <c r="D63" s="4"/>
       <c r="E63" s="5"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64"/>
-      <c r="B64" s="2"/>
+      <c r="A64" s="7">
+        <v>15050</v>
+      </c>
+      <c r="B64" s="2">
+        <v>10046213</v>
+      </c>
       <c r="D64" s="4"/>
       <c r="E64" s="5"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65"/>
-      <c r="B65" s="2"/>
+      <c r="A65" s="7">
+        <v>16050</v>
+      </c>
+      <c r="B65" s="2">
+        <v>10794202</v>
+      </c>
       <c r="D65" s="4"/>
       <c r="E65" s="5"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66"/>
-      <c r="B66" s="2"/>
+      <c r="A66" s="7">
+        <v>17050</v>
+      </c>
+      <c r="B66" s="2">
+        <v>10682848</v>
+      </c>
       <c r="D66" s="4"/>
       <c r="E66" s="5"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67"/>
-      <c r="B67" s="2"/>
+      <c r="A67" s="7">
+        <v>18050</v>
+      </c>
+      <c r="B67" s="2">
+        <v>11510930</v>
+      </c>
       <c r="D67" s="4"/>
       <c r="E67" s="5"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68"/>
-      <c r="B68" s="2"/>
+      <c r="A68" s="7">
+        <v>19050</v>
+      </c>
+      <c r="B68" s="2">
+        <v>13026845</v>
+      </c>
       <c r="D68" s="4"/>
       <c r="E68" s="5"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69"/>
-      <c r="B69" s="2"/>
+      <c r="A69" s="7">
+        <v>20050</v>
+      </c>
+      <c r="B69" s="2">
+        <v>19329924</v>
+      </c>
       <c r="D69" s="4"/>
       <c r="E69" s="5"/>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\labs\Mephi\5 sem\ta\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8BD89B-98CE-4C58-8016-0769311EB933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA7BB1E-77F4-4F50-B066-74453B3056C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -76,7 +76,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -225,61 +224,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>2050</c:v>
+                  <c:v>2100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3050</c:v>
+                  <c:v>3100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4050</c:v>
+                  <c:v>4100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5050</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6050</c:v>
+                  <c:v>6100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7050</c:v>
+                  <c:v>7100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8050</c:v>
+                  <c:v>8100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9050</c:v>
+                  <c:v>9100</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10050</c:v>
+                  <c:v>10100</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11050</c:v>
+                  <c:v>11100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12050</c:v>
+                  <c:v>12100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13050</c:v>
+                  <c:v>13100</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14050</c:v>
+                  <c:v>14100</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15050</c:v>
+                  <c:v>15100</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16050</c:v>
+                  <c:v>16100</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17050</c:v>
+                  <c:v>17100</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18050</c:v>
+                  <c:v>18100</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19050</c:v>
+                  <c:v>19100</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20050</c:v>
+                  <c:v>20100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -632,6 +631,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>smc</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1096,6 +1120,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>regex</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1220,64 +1270,64 @@
             <c:numRef>
               <c:f>Лист1!$A$51:$A$69</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>2050</c:v>
+                  <c:v>2100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3050</c:v>
+                  <c:v>3100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4050</c:v>
+                  <c:v>4100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5050</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6050</c:v>
+                  <c:v>6100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7050</c:v>
+                  <c:v>7100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8050</c:v>
+                  <c:v>8100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9050</c:v>
+                  <c:v>9100</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10050</c:v>
+                  <c:v>10100</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11050</c:v>
+                  <c:v>11100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12050</c:v>
+                  <c:v>12100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13050</c:v>
+                  <c:v>13100</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14050</c:v>
+                  <c:v>14100</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15050</c:v>
+                  <c:v>15100</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16050</c:v>
+                  <c:v>16100</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17050</c:v>
+                  <c:v>17100</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18050</c:v>
+                  <c:v>18100</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19050</c:v>
+                  <c:v>19100</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20050</c:v>
+                  <c:v>20100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1387,7 +1437,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3588,8 +3638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:B69"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3601,7 +3651,7 @@
   <sheetData>
     <row r="1" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D1" s="4">
-        <v>2050</v>
+        <v>2100</v>
       </c>
       <c r="E1" s="5">
         <v>39934407</v>
@@ -3609,7 +3659,7 @@
     </row>
     <row r="2" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D2" s="4">
-        <v>3050</v>
+        <v>3100</v>
       </c>
       <c r="E2" s="5">
         <v>86745579</v>
@@ -3617,7 +3667,7 @@
     </row>
     <row r="3" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D3" s="4">
-        <v>4050</v>
+        <v>4100</v>
       </c>
       <c r="E3" s="5">
         <v>152869560</v>
@@ -3625,7 +3675,7 @@
     </row>
     <row r="4" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D4" s="4">
-        <v>5050</v>
+        <v>5100</v>
       </c>
       <c r="E4" s="5">
         <v>215732990</v>
@@ -3633,7 +3683,7 @@
     </row>
     <row r="5" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D5" s="4">
-        <v>6050</v>
+        <v>6100</v>
       </c>
       <c r="E5" s="5">
         <v>295434935</v>
@@ -3641,7 +3691,7 @@
     </row>
     <row r="6" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D6" s="4">
-        <v>7050</v>
+        <v>7100</v>
       </c>
       <c r="E6" s="5">
         <v>400587152</v>
@@ -3649,7 +3699,7 @@
     </row>
     <row r="7" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D7" s="4">
-        <v>8050</v>
+        <v>8100</v>
       </c>
       <c r="E7" s="5">
         <v>543314916</v>
@@ -3657,7 +3707,7 @@
     </row>
     <row r="8" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D8" s="4">
-        <v>9050</v>
+        <v>9100</v>
       </c>
       <c r="E8" s="5">
         <v>678656569</v>
@@ -3665,7 +3715,7 @@
     </row>
     <row r="9" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D9" s="4">
-        <v>10050</v>
+        <v>10100</v>
       </c>
       <c r="E9" s="5">
         <v>809269612</v>
@@ -3673,7 +3723,7 @@
     </row>
     <row r="10" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D10" s="4">
-        <v>11050</v>
+        <v>11100</v>
       </c>
       <c r="E10" s="5">
         <v>980297178</v>
@@ -3681,7 +3731,7 @@
     </row>
     <row r="11" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D11" s="4">
-        <v>12050</v>
+        <v>12100</v>
       </c>
       <c r="E11" s="5">
         <v>1173177691</v>
@@ -3689,7 +3739,7 @@
     </row>
     <row r="12" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D12" s="4">
-        <v>13050</v>
+        <v>13100</v>
       </c>
       <c r="E12" s="5">
         <v>1362116461</v>
@@ -3697,7 +3747,7 @@
     </row>
     <row r="13" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D13" s="4">
-        <v>14050</v>
+        <v>14100</v>
       </c>
       <c r="E13" s="5">
         <v>1596880221</v>
@@ -3705,7 +3755,7 @@
     </row>
     <row r="14" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D14" s="4">
-        <v>15050</v>
+        <v>15100</v>
       </c>
       <c r="E14" s="5">
         <v>1817514824</v>
@@ -3713,7 +3763,7 @@
     </row>
     <row r="15" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D15" s="4">
-        <v>16050</v>
+        <v>16100</v>
       </c>
       <c r="E15" s="5">
         <v>2047722993</v>
@@ -3721,7 +3771,7 @@
     </row>
     <row r="16" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D16" s="4">
-        <v>17050</v>
+        <v>17100</v>
       </c>
       <c r="E16" s="5">
         <v>2448109958</v>
@@ -3729,7 +3779,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D17" s="4">
-        <v>18050</v>
+        <v>18100</v>
       </c>
       <c r="E17" s="5">
         <v>2727275079</v>
@@ -3737,7 +3787,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D18" s="4">
-        <v>19050</v>
+        <v>19100</v>
       </c>
       <c r="E18" s="5">
         <v>2952310641</v>
@@ -3745,7 +3795,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D19" s="4">
-        <v>20050</v>
+        <v>20100</v>
       </c>
       <c r="E19" s="5">
         <v>3446893763</v>
@@ -4014,8 +4064,8 @@
       <c r="E50" s="5"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="7">
-        <v>2050</v>
+      <c r="A51" s="4">
+        <v>2100</v>
       </c>
       <c r="B51" s="2">
         <v>1650682</v>
@@ -4024,8 +4074,8 @@
       <c r="E51" s="5"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="7">
-        <v>3050</v>
+      <c r="A52" s="4">
+        <v>3100</v>
       </c>
       <c r="B52" s="2">
         <v>2353093</v>
@@ -4034,8 +4084,8 @@
       <c r="E52" s="5"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="7">
-        <v>4050</v>
+      <c r="A53" s="4">
+        <v>4100</v>
       </c>
       <c r="B53" s="2">
         <v>3333749</v>
@@ -4044,8 +4094,8 @@
       <c r="E53" s="5"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="7">
-        <v>5050</v>
+      <c r="A54" s="4">
+        <v>5100</v>
       </c>
       <c r="B54" s="2">
         <v>3739060</v>
@@ -4054,8 +4104,8 @@
       <c r="E54" s="5"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="7">
-        <v>6050</v>
+      <c r="A55" s="4">
+        <v>6100</v>
       </c>
       <c r="B55" s="2">
         <v>4836475</v>
@@ -4064,8 +4114,8 @@
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="7">
-        <v>7050</v>
+      <c r="A56" s="4">
+        <v>7100</v>
       </c>
       <c r="B56" s="2">
         <v>5921026</v>
@@ -4074,8 +4124,8 @@
       <c r="E56" s="5"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="7">
-        <v>8050</v>
+      <c r="A57" s="4">
+        <v>8100</v>
       </c>
       <c r="B57" s="2">
         <v>6249614</v>
@@ -4084,8 +4134,8 @@
       <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="7">
-        <v>9050</v>
+      <c r="A58" s="4">
+        <v>9100</v>
       </c>
       <c r="B58" s="2">
         <v>6673623</v>
@@ -4094,8 +4144,8 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="7">
-        <v>10050</v>
+      <c r="A59" s="4">
+        <v>10100</v>
       </c>
       <c r="B59" s="2">
         <v>8765480</v>
@@ -4104,8 +4154,8 @@
       <c r="E59" s="5"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="7">
-        <v>11050</v>
+      <c r="A60" s="4">
+        <v>11100</v>
       </c>
       <c r="B60" s="2">
         <v>8671588</v>
@@ -4114,8 +4164,8 @@
       <c r="E60" s="5"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="7">
-        <v>12050</v>
+      <c r="A61" s="4">
+        <v>12100</v>
       </c>
       <c r="B61" s="2">
         <v>8635178</v>
@@ -4124,8 +4174,8 @@
       <c r="E61" s="5"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="7">
-        <v>13050</v>
+      <c r="A62" s="4">
+        <v>13100</v>
       </c>
       <c r="B62" s="2">
         <v>11733523</v>
@@ -4134,8 +4184,8 @@
       <c r="E62" s="5"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="7">
-        <v>14050</v>
+      <c r="A63" s="4">
+        <v>14100</v>
       </c>
       <c r="B63" s="2">
         <v>9443714</v>
@@ -4144,8 +4194,8 @@
       <c r="E63" s="5"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="7">
-        <v>15050</v>
+      <c r="A64" s="4">
+        <v>15100</v>
       </c>
       <c r="B64" s="2">
         <v>10046213</v>
@@ -4154,8 +4204,8 @@
       <c r="E64" s="5"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="7">
-        <v>16050</v>
+      <c r="A65" s="4">
+        <v>16100</v>
       </c>
       <c r="B65" s="2">
         <v>10794202</v>
@@ -4164,8 +4214,8 @@
       <c r="E65" s="5"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="7">
-        <v>17050</v>
+      <c r="A66" s="4">
+        <v>17100</v>
       </c>
       <c r="B66" s="2">
         <v>10682848</v>
@@ -4174,8 +4224,8 @@
       <c r="E66" s="5"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="7">
-        <v>18050</v>
+      <c r="A67" s="4">
+        <v>18100</v>
       </c>
       <c r="B67" s="2">
         <v>11510930</v>
@@ -4184,8 +4234,8 @@
       <c r="E67" s="5"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="7">
-        <v>19050</v>
+      <c r="A68" s="4">
+        <v>19100</v>
       </c>
       <c r="B68" s="2">
         <v>13026845</v>
@@ -4194,8 +4244,8 @@
       <c r="E68" s="5"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="7">
-        <v>20050</v>
+      <c r="A69" s="4">
+        <v>20100</v>
       </c>
       <c r="B69" s="2">
         <v>19329924</v>
